--- a/rp/Excel/Ear_耳朵.xlsx
+++ b/rp/Excel/Ear_耳朵.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t xml:space="preserve">Int</t>
   </si>
@@ -51,10 +51,85 @@
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">光束拖尾</t>
+    <t xml:space="preserve">狐狸耳朵</t>
   </si>
   <si>
-    <t xml:space="preserve">彩虹拖尾</t>
+    <t xml:space="preserve">0|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">围巾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双马尾辫子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狐耳朵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猫耳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星星</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梦幻泡泡蝴蝶结</t>
+  </si>
+  <si>
+    <t xml:space="preserve">道具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿蛇头发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青蛇头发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">红蛇头发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|15|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犄角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|16|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发光恶魔角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|18|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帽子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护目眼镜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|5|15|-45|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泳镜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|5|17|-45|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">男帽子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0|0|0|0|1.2|1.2|1.2</t>
   </si>
 </sst>
 </file>
@@ -64,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -100,6 +175,13 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -146,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +242,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,10 +269,10 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -310,9 +396,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>88442</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>226479</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
@@ -338,12 +426,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>295506</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>88824</v>
-      </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
@@ -365,11 +455,21 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>352615</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -388,11 +488,21 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>404433</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -411,11 +521,21 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>404473</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -434,11 +554,21 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>441348</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -457,11 +587,21 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>441349</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -480,11 +620,21 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>452232</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -503,11 +653,21 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>452233</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -526,11 +686,21 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>452234</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -549,11 +719,21 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>452235</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -572,11 +752,21 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>471540</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -595,11 +785,21 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>471541</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -618,11 +818,21 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>471542</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -641,11 +851,21 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>471543</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -664,11 +884,21 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>502350</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -687,11 +917,21 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>502351</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -710,11 +950,21 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>502352</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -733,10 +983,18 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>266596</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -756,10 +1014,18 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>266597</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -779,10 +1045,18 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>266598</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -802,10 +1076,18 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>266600</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -825,10 +1107,18 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>266601</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -848,10 +1138,18 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>266602</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -871,10 +1169,18 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>266610</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -894,10 +1200,18 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>467603</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -917,10 +1231,18 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>266332</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -940,10 +1262,18 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>457013</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -963,10 +1293,18 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>209534</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -986,10 +1324,18 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>112801</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1009,10 +1355,18 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>173867</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>

--- a/rp/Excel/Ear_耳朵.xlsx
+++ b/rp/Excel/Ear_耳朵.xlsx
@@ -1,280 +1,1365 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
-    <t xml:space="preserve">Int</t>
+    <t>Int</t>
   </si>
   <si>
-    <t xml:space="preserve">String</t>
+    <t>String</t>
   </si>
   <si>
-    <t xml:space="preserve">String[]</t>
+    <t>String[]</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe</t>
+    <t>Describe</t>
   </si>
   <si>
-    <t xml:space="preserve">AssetId</t>
+    <t>AssetId</t>
   </si>
   <si>
-    <t xml:space="preserve">Transform</t>
+    <t>Transform</t>
   </si>
   <si>
-    <t xml:space="preserve">SexType</t>
+    <t>SexType</t>
   </si>
   <si>
-    <t xml:space="preserve">0-Common
+    <t>0-Common
 1-Male
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">狐狸耳朵</t>
+    <t>狐狸耳朵</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0|0|0|0|1|1|1</t>
+    <t>0|0|0|0|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">围巾</t>
+    <t>围巾</t>
   </si>
   <si>
-    <t xml:space="preserve">双马尾辫子</t>
+    <t>双马尾辫子</t>
   </si>
   <si>
-    <t xml:space="preserve">狐耳朵</t>
+    <t>狐耳朵</t>
   </si>
   <si>
-    <t xml:space="preserve">猫耳</t>
+    <t>猫耳</t>
   </si>
   <si>
-    <t xml:space="preserve">星星</t>
+    <t>星星</t>
   </si>
   <si>
-    <t xml:space="preserve">问号</t>
+    <t>问号</t>
   </si>
   <si>
-    <t xml:space="preserve">梦幻泡泡蝴蝶结</t>
+    <t>0|0|50|0|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">道具</t>
+    <t>梦幻泡泡蝴蝶结</t>
   </si>
   <si>
-    <t xml:space="preserve">绿蛇头发</t>
+    <t>道具</t>
   </si>
   <si>
-    <t xml:space="preserve">青蛇头发</t>
+    <t>绿蛇头发</t>
   </si>
   <si>
-    <t xml:space="preserve">红蛇头发</t>
+    <t>青蛇头发</t>
   </si>
   <si>
-    <t xml:space="preserve">龙角</t>
+    <t>红蛇头发</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|15|0|0|0|1|1|1</t>
+    <t>龙角</t>
   </si>
   <si>
-    <t xml:space="preserve">犄角</t>
+    <t>0|0|15|0|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|16|0|0|0|1|1|1</t>
+    <t>犄角</t>
   </si>
   <si>
-    <t xml:space="preserve">发光恶魔角</t>
+    <t>0|0|16|0|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|18|0|0|0|1|1|1</t>
+    <t>发光恶魔角</t>
   </si>
   <si>
-    <t xml:space="preserve">帽子</t>
+    <t>0|0|18|0|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|12|0|0|0|1|1|1</t>
+    <t>帽子</t>
   </si>
   <si>
-    <t xml:space="preserve">护目眼镜</t>
+    <t>0|0|12|0|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|5|15|-45|0|0|1|1|1</t>
+    <t>护目眼镜</t>
   </si>
   <si>
-    <t xml:space="preserve">泳镜</t>
+    <t>0|5|15|-45|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|5|17|-45|0|0|1|1|1</t>
+    <t>泳镜</t>
   </si>
   <si>
-    <t xml:space="preserve">男帽子</t>
+    <t>0|5|17|-45|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0|0|0|0|1.2|1.2|1.2</t>
+    <t>男帽子</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>尴尬</t>
+  </si>
+  <si>
+    <t>0|0|30|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>手指</t>
+  </si>
+  <si>
+    <t>自动寻路图标</t>
+  </si>
+  <si>
+    <t>0|0|20|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>生气</t>
+  </si>
+  <si>
+    <t>荧光小人</t>
+  </si>
+  <si>
+    <t>恭喜发财</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:U200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -307,7 +1392,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -340,7 +1425,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="38.25" spans="1:21">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -365,7 +1450,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -388,20 +1473,20 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>226479</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
@@ -421,20 +1506,20 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>295506</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
@@ -454,20 +1539,20 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>352615</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
@@ -487,20 +1572,20 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>404433</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
@@ -520,20 +1605,20 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>404473</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
@@ -553,20 +1638,20 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>441348</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
@@ -586,20 +1671,20 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>441349</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
@@ -619,20 +1704,20 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13728</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>452232</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
@@ -652,20 +1737,20 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>452233</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>452232</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
@@ -685,20 +1770,20 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>452234</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>452233</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
@@ -718,20 +1803,20 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>452235</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>452234</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
@@ -751,20 +1836,20 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>471540</v>
+      <c r="C16" s="1">
+        <v>452235</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
@@ -784,20 +1869,20 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>471541</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>471540</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
@@ -817,20 +1902,20 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>471542</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>471541</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
@@ -850,20 +1935,20 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>471543</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>471542</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
@@ -883,20 +1968,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>502350</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="1">
+        <v>471543</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1"/>
@@ -916,20 +2001,20 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>502351</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="1">
+        <v>502350</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1"/>
@@ -949,20 +2034,20 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>502352</v>
+      <c r="C22" s="1">
+        <v>502351</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
@@ -982,20 +2067,22 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>266596</v>
+      <c r="C23" s="1">
+        <v>502352</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1013,20 +2100,22 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>266597</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>266596</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1044,20 +2133,22 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>266598</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>266597</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1075,20 +2166,22 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>266600</v>
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>266598</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1106,20 +2199,22 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>266601</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>266600</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1137,20 +2232,22 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>266602</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>266601</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1168,20 +2265,22 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>266610</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>266602</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1199,20 +2298,22 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>266610</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>467603</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1230,20 +2331,22 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>467603</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>266332</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1261,20 +2364,22 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1">
+        <v>266332</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>457013</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1292,20 +2397,22 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1">
+        <v>457013</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>209534</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1323,20 +2430,22 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>209534</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>112801</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1354,20 +2463,22 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>112801</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>173867</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1385,12 +2496,22 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>173867</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1408,12 +2529,22 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>26146</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1431,12 +2562,22 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1">
+        <v>26151</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1454,12 +2595,20 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1477,12 +2626,22 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>160743</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1500,12 +2659,22 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1">
+        <v>162012</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1523,12 +2692,22 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
+        <v>168959</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1546,12 +2725,22 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <v>200925</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1569,12 +2758,22 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1">
+        <v>403000</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1592,12 +2791,22 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1">
+        <v>403004</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1615,12 +2824,22 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>403012</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1638,12 +2857,22 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>403014</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1661,12 +2890,22 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>403015</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1684,12 +2923,22 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>506842</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1707,7 +2956,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:21">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1730,7 +2979,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:21">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1753,7 +3002,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:21">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1776,7 +3025,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:21">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1799,7 +3048,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:21">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1822,7 +3071,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:21">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1845,7 +3094,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:21">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1868,7 +3117,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:21">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1891,7 +3140,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:21">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1914,7 +3163,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:21">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1937,7 +3186,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:21">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1960,7 +3209,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:21">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1983,7 +3232,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:21">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2006,7 +3255,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:21">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2029,7 +3278,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:21">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2052,7 +3301,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:21">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2075,7 +3324,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:21">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2098,7 +3347,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:21">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2121,7 +3370,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:21">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2144,7 +3393,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:21">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2167,7 +3416,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:21">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2190,7 +3439,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:21">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2213,7 +3462,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:21">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2236,7 +3485,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:21">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2259,7 +3508,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:21">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2282,7 +3531,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:21">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2305,7 +3554,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:21">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2328,7 +3577,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:21">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2351,7 +3600,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:21">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2374,7 +3623,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:21">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2397,7 +3646,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:21">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2420,7 +3669,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:21">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2443,7 +3692,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:21">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2466,7 +3715,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:21">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2489,7 +3738,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:21">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2512,7 +3761,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:21">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2535,7 +3784,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:21">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2558,7 +3807,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:21">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2581,7 +3830,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:21">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2604,7 +3853,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:21">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2627,7 +3876,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:21">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2650,7 +3899,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:21">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2673,7 +3922,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:21">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2696,7 +3945,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:21">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2719,7 +3968,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:21">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2742,7 +3991,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:21">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2765,7 +4014,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:21">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2788,7 +4037,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:21">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2811,7 +4060,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:21">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2834,7 +4083,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:21">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2857,7 +4106,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:21">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2880,7 +4129,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:21">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2903,7 +4152,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:21">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2926,7 +4175,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:21">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2949,7 +4198,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:21">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2972,7 +4221,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:21">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2995,7 +4244,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:21">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3018,7 +4267,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:21">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3041,7 +4290,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:21">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3064,7 +4313,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:21">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3087,7 +4336,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:21">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3110,7 +4359,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:21">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3133,7 +4382,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:21">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3156,7 +4405,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:21">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3179,7 +4428,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:21">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3202,7 +4451,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:21">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3225,7 +4474,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:21">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3248,7 +4497,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:21">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3271,7 +4520,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:21">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3294,7 +4543,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:21">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3317,7 +4566,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:21">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3340,7 +4589,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:21">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3363,7 +4612,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:21">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3386,7 +4635,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:21">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3409,7 +4658,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:21">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3432,7 +4681,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:21">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3455,7 +4704,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:21">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3478,7 +4727,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:21">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3501,7 +4750,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:21">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3524,7 +4773,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:21">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3547,7 +4796,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:21">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3570,7 +4819,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:21">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3593,7 +4842,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:21">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3616,7 +4865,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:21">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3639,7 +4888,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:21">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3662,7 +4911,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:21">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3685,7 +4934,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:21">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3708,7 +4957,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:21">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3731,7 +4980,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:21">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3754,7 +5003,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:21">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3777,7 +5026,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:21">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3800,7 +5049,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:21">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3823,7 +5072,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:21">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3846,7 +5095,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:21">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3869,7 +5118,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:21">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3892,7 +5141,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:21">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3915,7 +5164,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:21">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3938,7 +5187,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:21">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3961,7 +5210,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:21">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3984,7 +5233,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:21">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4007,7 +5256,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:21">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4030,7 +5279,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:21">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4053,7 +5302,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:21">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4076,7 +5325,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:21">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4099,7 +5348,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:21">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4122,7 +5371,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:21">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4145,7 +5394,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:21">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4168,7 +5417,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:21">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4191,7 +5440,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:21">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4214,7 +5463,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:21">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4237,7 +5486,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:21">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4260,7 +5509,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:21">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4283,7 +5532,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:21">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4306,7 +5555,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:21">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4329,7 +5578,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:21">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4352,7 +5601,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:21">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4375,7 +5624,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4398,7 +5647,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4421,7 +5670,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:21">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4444,7 +5693,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:21">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4467,7 +5716,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:21">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4490,7 +5739,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:21">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4513,7 +5762,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:21">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4536,7 +5785,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:21">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4559,7 +5808,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:21">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4582,7 +5831,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:21">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4605,7 +5854,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:21">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4628,7 +5877,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:21">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4651,7 +5900,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:21">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4674,7 +5923,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:21">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4697,7 +5946,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:21">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4720,7 +5969,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:21">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4743,7 +5992,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:21">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4766,7 +6015,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:21">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4789,7 +6038,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:21">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4812,7 +6061,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:21">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4835,7 +6084,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:21">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4858,7 +6107,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:21">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4881,7 +6130,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:21">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4904,7 +6153,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:21">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4927,7 +6176,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:21">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4950,7 +6199,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:21">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4973,7 +6222,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:21">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4996,7 +6245,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:21">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5019,7 +6268,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:21">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5042,7 +6291,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:21">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5065,7 +6314,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:21">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5088,7 +6337,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:21">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5111,7 +6360,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:21">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5134,7 +6383,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:21">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5157,7 +6406,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:21">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5180,14 +6429,33 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Ear_耳朵.xlsx
+++ b/rp/Excel/Ear_耳朵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>Int</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>星星</t>
+  </si>
+  <si>
+    <t>狗头</t>
+  </si>
+  <si>
+    <t>0|0|-8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>熊猫头</t>
   </si>
   <si>
     <t>问号</t>
@@ -1348,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
@@ -1679,10 +1688,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>441349</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>462790</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1709,10 +1718,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>13728</v>
+        <v>462791</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>17</v>
@@ -1742,12 +1751,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>452232</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>441349</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1">
@@ -1775,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>452233</v>
+        <v>13728</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1808,12 +1817,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>452234</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>452232</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1">
@@ -1841,10 +1850,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>452235</v>
+        <v>452233</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -1874,12 +1883,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>471540</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>452234</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1">
@@ -1907,12 +1916,12 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>471541</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>452235</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1">
@@ -1940,10 +1949,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>471542</v>
+        <v>471540</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
@@ -1973,12 +1982,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>471543</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>471541</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="1">
@@ -2006,12 +2015,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>502350</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>471542</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1">
@@ -2039,10 +2048,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>502351</v>
+        <v>471543</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -2072,12 +2081,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>502352</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>502350</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1">
@@ -2105,13 +2114,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>266596</v>
+        <v>502351</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2138,13 +2147,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>266597</v>
+        <v>502352</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -2171,13 +2180,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <v>266598</v>
+        <v>266596</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2204,13 +2213,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>266600</v>
+        <v>266597</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2237,13 +2246,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>266601</v>
+        <v>266598</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2270,13 +2279,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>266602</v>
+        <v>266600</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2303,13 +2312,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>266610</v>
+        <v>266601</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2336,13 +2345,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
-        <v>467603</v>
+        <v>266602</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2369,13 +2378,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1">
+        <v>266610</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C32" s="1">
-        <v>266332</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2402,13 +2411,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>467603</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C33" s="1">
-        <v>457013</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2435,13 +2444,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>266332</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <v>209534</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2468,13 +2477,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1">
+        <v>457013</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C35" s="1">
-        <v>112801</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2501,13 +2510,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <v>209534</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C36" s="1">
-        <v>173867</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2533,14 +2542,14 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>112801</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C37" s="1">
-        <v>26146</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2566,14 +2575,14 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>173867</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C38" s="1">
-        <v>26151</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2599,12 +2608,14 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C39" s="1">
-        <v>26155</v>
+        <v>26146</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2631,13 +2642,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
-        <v>160743</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>38</v>
+        <v>26151</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2663,14 +2674,12 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C41" s="1">
-        <v>162012</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2700,10 +2709,10 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <v>168959</v>
+        <v>160743</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2733,10 +2742,10 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <v>200925</v>
+        <v>162012</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -2763,13 +2772,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1">
+        <v>168959</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C44" s="1">
-        <v>403000</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2796,13 +2805,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1">
-        <v>403004</v>
+        <v>200925</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -2829,10 +2838,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1">
-        <v>403012</v>
+        <v>403000</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
@@ -2862,10 +2871,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>403014</v>
+        <v>403004</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>10</v>
@@ -2895,10 +2904,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>403015</v>
+        <v>403012</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>10</v>
@@ -2928,10 +2937,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>506842</v>
+        <v>403014</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>10</v>
@@ -2957,11 +2966,21 @@
       <c r="U49" s="1"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>403015</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2980,11 +2999,21 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>506842</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -6452,6 +6481,52 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
     </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Ear_耳朵.xlsx
+++ b/rp/Excel/Ear_耳朵.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>Int</t>
   </si>
@@ -79,6 +79,12 @@
     <t>星星</t>
   </si>
   <si>
+    <t>眩晕Buff</t>
+  </si>
+  <si>
+    <t>0|0|22|0|0|0|0.4|0.4|0.4</t>
+  </si>
+  <si>
     <t>狗头</t>
   </si>
   <si>
@@ -91,7 +97,67 @@
     <t>问号</t>
   </si>
   <si>
-    <t>0|0|50|0|0|0|1|1|1</t>
+    <t>0|0|38|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>乌云</t>
+  </si>
+  <si>
+    <t>0|0|47|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|14|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>0|0|23|0|0|0|0.15|0.15|0.15</t>
+  </si>
+  <si>
+    <t>-15|0|30|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>0|0|8|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>恶心</t>
+  </si>
+  <si>
+    <t>0|0|36|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>泡泡</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>0|0|20|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>花瓣环绕</t>
+  </si>
+  <si>
+    <t>蝴蝶泡泡</t>
+  </si>
+  <si>
+    <t>五角星泡泡</t>
+  </si>
+  <si>
+    <t>打瞌睡</t>
+  </si>
+  <si>
+    <t>0|10|5|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>爱心</t>
+  </si>
+  <si>
+    <t>0|0|32|0|0|0|0.5|0.5|0.5</t>
   </si>
   <si>
     <t>梦幻泡泡蝴蝶结</t>
@@ -166,9 +232,6 @@
     <t>自动寻路图标</t>
   </si>
   <si>
-    <t>0|0|20|0|0|0|1|1|1</t>
-  </si>
-  <si>
     <t>子弹</t>
   </si>
   <si>
@@ -191,7 +254,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -214,6 +277,23 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -675,142 +755,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -822,6 +902,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,10 +1452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U203"/>
+  <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
@@ -1680,15 +1775,15 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" ht="17.25" spans="1:21">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
-        <v>462790</v>
+      <c r="C11" s="5">
+        <v>142935</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>17</v>
@@ -1721,10 +1816,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>462791</v>
+        <v>462790</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1751,13 +1846,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>462791</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>441349</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1784,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>13728</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>441349</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1820,10 +1915,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>452232</v>
+        <v>13728</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1849,16 +1944,16 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1">
-        <v>452233</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7">
+        <v>169404</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
@@ -1886,12 +1981,12 @@
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>452234</v>
+        <v>200911</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
@@ -1916,15 +2011,15 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>452235</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
+        <v>88831</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
@@ -1949,15 +2044,15 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>471540</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
+        <v>88818</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
@@ -1982,15 +2077,15 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>471541</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
+        <v>88825</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7">
         <v>0</v>
       </c>
       <c r="F20" s="1"/>
@@ -2015,15 +2110,15 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>471542</v>
+        <v>287819</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="1"/>
@@ -2048,15 +2143,15 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
-        <v>471543</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
@@ -2081,12 +2176,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
-        <v>502350</v>
-      </c>
-      <c r="D23" s="1" t="s">
+        <v>451246</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1">
@@ -2114,13 +2209,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>502351</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>452716</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2147,10 +2242,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
-        <v>502352</v>
+        <v>340179</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
@@ -2180,13 +2275,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
-        <v>266596</v>
+        <v>295800</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2213,13 +2308,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1">
-        <v>266597</v>
+        <v>235888</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2246,13 +2341,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
-        <v>266598</v>
+        <v>295801</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2279,13 +2374,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
-        <v>266600</v>
+        <v>26158</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2312,15 +2407,15 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
-        <v>266601</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1">
+        <v>184435</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="7">
         <v>0</v>
       </c>
       <c r="F30" s="1"/>
@@ -2345,13 +2440,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
-        <v>266602</v>
+        <v>452232</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2378,13 +2473,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
-        <v>266610</v>
+        <v>452233</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2411,13 +2506,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>467603</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
+        <v>452234</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2444,13 +2539,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>266332</v>
+        <v>452235</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2477,13 +2572,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1">
-        <v>457013</v>
+        <v>471540</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2510,13 +2605,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>209534</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>35</v>
+        <v>471541</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2543,13 +2638,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1">
-        <v>112801</v>
+        <v>471542</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2576,13 +2671,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
-        <v>173867</v>
+        <v>471543</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2608,14 +2703,14 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C39" s="1">
-        <v>26146</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>502350</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2641,13 +2736,13 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>42</v>
+      <c r="B40" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="1">
-        <v>26151</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>502351</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="1">
@@ -2674,12 +2769,14 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C41" s="1">
-        <v>26155</v>
+        <v>502352</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2705,14 +2802,14 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="1">
-        <v>160743</v>
+        <v>266596</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2738,14 +2835,14 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C43" s="1">
-        <v>162012</v>
+        <v>266597</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -2771,14 +2868,14 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>46</v>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>168959</v>
+        <v>266598</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2804,14 +2901,14 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>200925</v>
+        <v>266600</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -2837,14 +2934,14 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="1">
-        <v>403000</v>
+        <v>266601</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -2870,14 +2967,14 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>403004</v>
+        <v>266602</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -2903,14 +3000,14 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>403012</v>
+        <v>266610</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -2936,14 +3033,14 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>48</v>
+      <c r="B49" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C49" s="1">
-        <v>403014</v>
+        <v>467603</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2969,14 +3066,14 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>48</v>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="1">
-        <v>403015</v>
+        <v>266332</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -3002,14 +3099,14 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="1">
-        <v>506842</v>
+        <v>457013</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3032,11 +3129,21 @@
       <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1">
+        <v>209534</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3055,11 +3162,21 @@
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1">
+        <v>112801</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3078,11 +3195,21 @@
       <c r="U53" s="1"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1">
+        <v>173867</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3101,11 +3228,21 @@
       <c r="U54" s="1"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1">
+        <v>26146</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3124,11 +3261,21 @@
       <c r="U55" s="1"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="1">
+        <v>26151</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3147,11 +3294,19 @@
       <c r="U56" s="1"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="C57" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3170,11 +3325,21 @@
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1">
+        <v>160743</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -3193,11 +3358,21 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1">
+        <v>162012</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3216,11 +3391,21 @@
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="1">
+        <v>168959</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3239,11 +3424,21 @@
       <c r="U60" s="1"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1">
+        <v>200925</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3262,11 +3457,21 @@
       <c r="U61" s="1"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>403000</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -3285,11 +3490,21 @@
       <c r="U62" s="1"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>403004</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3308,11 +3523,21 @@
       <c r="U63" s="1"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1">
+        <v>403012</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3331,11 +3556,21 @@
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1">
+        <v>403014</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3354,11 +3589,21 @@
       <c r="U65" s="1"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="1">
+        <v>403015</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -3377,11 +3622,21 @@
       <c r="U66" s="1"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="1">
+        <v>506842</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -6527,6 +6782,374 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
     </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Ear_耳朵.xlsx
+++ b/rp/Excel/Ear_耳朵.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>Int</t>
   </si>
@@ -1452,10 +1452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U219"/>
+  <dimension ref="A1:U220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
@@ -2274,11 +2274,9 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="1">
-        <v>295800</v>
+        <v>340181</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
@@ -2308,10 +2306,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>235888</v>
+        <v>295800</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
@@ -2341,10 +2339,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>295801</v>
+        <v>235888</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -2374,13 +2372,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
-        <v>26158</v>
+        <v>295801</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2407,15 +2405,15 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
-        <v>184435</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="7">
+        <v>26158</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1"/>
@@ -2440,15 +2438,15 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>452232</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1">
+        <v>184435</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7">
         <v>0</v>
       </c>
       <c r="F31" s="1"/>
@@ -2476,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="1">
-        <v>452233</v>
+        <v>452232</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
@@ -2509,9 +2507,9 @@
         <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>452234</v>
-      </c>
-      <c r="D33" s="1" t="s">
+        <v>452233</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1">
@@ -2542,9 +2540,9 @@
         <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>452235</v>
-      </c>
-      <c r="D34" s="4" t="s">
+        <v>452234</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="1">
@@ -2572,10 +2570,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>471540</v>
+        <v>452235</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>10</v>
@@ -2608,9 +2606,9 @@
         <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>471541</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>471540</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1">
@@ -2641,9 +2639,9 @@
         <v>44</v>
       </c>
       <c r="C37" s="1">
-        <v>471542</v>
-      </c>
-      <c r="D37" s="4" t="s">
+        <v>471541</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="1">
@@ -2674,7 +2672,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="1">
-        <v>471543</v>
+        <v>471542</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>10</v>
@@ -2704,12 +2702,12 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
-        <v>502350</v>
-      </c>
-      <c r="D39" s="1" t="s">
+        <v>471543</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1">
@@ -2737,12 +2735,12 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
-        <v>502351</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>502350</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="1">
@@ -2770,10 +2768,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
-        <v>502352</v>
+        <v>502351</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>10</v>
@@ -2803,13 +2801,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
-        <v>266596</v>
+        <v>502352</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2839,7 +2837,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="1">
-        <v>266597</v>
+        <v>266596</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>49</v>
@@ -2872,7 +2870,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>266598</v>
+        <v>266597</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>49</v>
@@ -2905,7 +2903,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>266600</v>
+        <v>266598</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>49</v>
@@ -2938,7 +2936,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="1">
-        <v>266601</v>
+        <v>266600</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>49</v>
@@ -2971,7 +2969,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>266602</v>
+        <v>266601</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>49</v>
@@ -3004,7 +3002,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>266610</v>
+        <v>266602</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>49</v>
@@ -3034,13 +3032,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>467603</v>
+        <v>266610</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -3067,13 +3065,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1">
-        <v>266332</v>
+        <v>467603</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -3100,13 +3098,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1">
-        <v>457013</v>
+        <v>266332</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3133,13 +3131,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1">
-        <v>209534</v>
+        <v>457013</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3166,13 +3164,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1">
-        <v>112801</v>
+        <v>209534</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3199,13 +3197,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1">
-        <v>173867</v>
+        <v>112801</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3231,14 +3229,14 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>62</v>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C55" s="1">
-        <v>26146</v>
+        <v>173867</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3265,13 +3263,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1">
-        <v>26151</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>26146</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -3297,12 +3295,14 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C57" s="1">
-        <v>26155</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>63</v>
+        <v>26151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3328,11 +3328,9 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1">
-        <v>160743</v>
+        <v>26155</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>63</v>
@@ -3362,13 +3360,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1">
-        <v>162012</v>
+        <v>160743</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -3395,10 +3393,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1">
-        <v>168959</v>
+        <v>162012</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>35</v>
@@ -3428,13 +3426,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="1">
-        <v>200925</v>
+        <v>168959</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3461,13 +3459,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1">
-        <v>403000</v>
+        <v>200925</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -3497,7 +3495,7 @@
         <v>69</v>
       </c>
       <c r="C63" s="1">
-        <v>403004</v>
+        <v>403000</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
@@ -3530,7 +3528,7 @@
         <v>69</v>
       </c>
       <c r="C64" s="1">
-        <v>403012</v>
+        <v>403004</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>10</v>
@@ -3563,7 +3561,7 @@
         <v>69</v>
       </c>
       <c r="C65" s="1">
-        <v>403014</v>
+        <v>403012</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>10</v>
@@ -3596,7 +3594,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="1">
-        <v>403015</v>
+        <v>403014</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>10</v>
@@ -3626,10 +3624,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="1">
-        <v>506842</v>
+        <v>403015</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>10</v>
@@ -3655,11 +3653,21 @@
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1">
+        <v>506842</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -7150,6 +7158,29 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
     </row>
+    <row r="220" spans="1:21">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Ear_耳朵.xlsx
+++ b/rp/Excel/Ear_耳朵.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
   <si>
     <t>Int</t>
   </si>
@@ -242,6 +242,189 @@
   </si>
   <si>
     <t>恭喜发财</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>0|0|-5|0|0|0|0.6|0.6|0.6</t>
+  </si>
+  <si>
+    <t>头套</t>
+  </si>
+  <si>
+    <t>0|0|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|0|15|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-1.3|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|4|12|-5|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|7|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|-2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|4|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|16|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|15|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>2|-4|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|13|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|2|13|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|10|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>0|-3|8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|8|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>0|-1|3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-5|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|14|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>-3|-5|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|-7|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>0|-2|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>3|0|18|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-9|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|10|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-4|6|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-2.5|5|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-3|6|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|-2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1.5|-3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|-3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|3|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-2.5|2.5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-6|-6|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1.33|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|12|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|0|22|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-4.5|15|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-5|16|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|2|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|17|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|9|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|11|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -890,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -918,6 +1101,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1452,14 +1644,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U220"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
   <cols>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2446,7 +2639,7 @@
       <c r="D31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1"/>
@@ -2776,7 +2969,7 @@
       <c r="D41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="7">
         <v>0</v>
       </c>
       <c r="F41" s="1"/>
@@ -2809,7 +3002,7 @@
       <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="7">
         <v>0</v>
       </c>
       <c r="F42" s="1"/>
@@ -2842,7 +3035,7 @@
       <c r="D43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>0</v>
       </c>
       <c r="F43" s="1"/>
@@ -2875,7 +3068,7 @@
       <c r="D44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="7">
         <v>0</v>
       </c>
       <c r="F44" s="1"/>
@@ -2908,7 +3101,7 @@
       <c r="D45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="7">
         <v>0</v>
       </c>
       <c r="F45" s="1"/>
@@ -2941,7 +3134,7 @@
       <c r="D46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="7">
         <v>0</v>
       </c>
       <c r="F46" s="1"/>
@@ -2974,7 +3167,7 @@
       <c r="D47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="7">
         <v>0</v>
       </c>
       <c r="F47" s="1"/>
@@ -3599,7 +3792,7 @@
       <c r="D66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="7">
         <v>0</v>
       </c>
       <c r="F66" s="1"/>
@@ -3632,7 +3825,7 @@
       <c r="D67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="7">
         <v>0</v>
       </c>
       <c r="F67" s="1"/>
@@ -3665,7 +3858,7 @@
       <c r="D68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="7">
         <v>0</v>
       </c>
       <c r="F68" s="1"/>
@@ -3686,11 +3879,21 @@
       <c r="U68" s="1"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1">
+        <v>442771</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3709,11 +3912,21 @@
       <c r="U69" s="1"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>234390</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3732,11 +3945,19 @@
       <c r="U70" s="1"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="C71" s="1">
+        <v>292089</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -3754,12 +3975,20 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="1"/>
+    <row r="72" ht="17.25" spans="1:21">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="12">
+        <v>72681</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -3777,12 +4006,20 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="1"/>
+    <row r="73" ht="17.25" spans="1:21">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="C73" s="12">
+        <v>72689</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3800,12 +4037,20 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="1"/>
+    <row r="74" ht="17.25" spans="1:21">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="12">
+        <v>44268</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3823,12 +4068,20 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="1"/>
+    <row r="75" ht="17.25" spans="1:21">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="12">
+        <v>72675</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -3846,12 +4099,20 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="1"/>
+    <row r="76" ht="17.25" spans="1:21">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="C76" s="12">
+        <v>68413</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -3869,12 +4130,20 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21">
-      <c r="A77" s="1"/>
+    <row r="77" ht="17.25" spans="1:21">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="C77" s="12">
+        <v>266331</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3892,12 +4161,20 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="1"/>
+    <row r="78" ht="17.25" spans="1:21">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="C78" s="12">
+        <v>386337</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -3915,12 +4192,20 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="1"/>
+    <row r="79" ht="17.25" spans="1:21">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="C79" s="12">
+        <v>173237</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -3938,12 +4223,20 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="1"/>
+    <row r="80" ht="17.25" spans="1:21">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="C80" s="12">
+        <v>173239</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -3961,12 +4254,20 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="1"/>
+    <row r="81" ht="17.25" spans="1:21">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="12">
+        <v>173240</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -3984,12 +4285,20 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="1"/>
+    <row r="82" ht="17.25" spans="1:21">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="C82" s="12">
+        <v>173242</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -4007,12 +4316,20 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="1"/>
+    <row r="83" ht="17.25" spans="1:21">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="C83" s="12">
+        <v>173241</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -4030,12 +4347,20 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21">
-      <c r="A84" s="1"/>
+    <row r="84" ht="17.25" spans="1:21">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="C84" s="12">
+        <v>173243</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -4053,12 +4378,20 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:21">
-      <c r="A85" s="1"/>
+    <row r="85" ht="17.25" spans="1:21">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="C85" s="12">
+        <v>173244</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -4076,12 +4409,20 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="1"/>
+    <row r="86" ht="17.25" spans="1:21">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="C86" s="12">
+        <v>173245</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -4099,12 +4440,20 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="1"/>
+    <row r="87" ht="17.25" spans="1:21">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="C87" s="12">
+        <v>173501</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -4122,12 +4471,20 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="1:21">
-      <c r="A88" s="1"/>
+    <row r="88" ht="17.25" spans="1:21">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="C88" s="12">
+        <v>173502</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -4145,12 +4502,20 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:21">
-      <c r="A89" s="1"/>
+    <row r="89" ht="17.25" spans="1:21">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="C89" s="12">
+        <v>173499</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -4168,12 +4533,20 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21">
-      <c r="A90" s="1"/>
+    <row r="90" ht="17.25" spans="1:21">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="C90" s="12">
+        <v>173503</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -4191,12 +4564,20 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="1:21">
-      <c r="A91" s="1"/>
+    <row r="91" ht="17.25" spans="1:21">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="C91" s="12">
+        <v>173504</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -4214,12 +4595,20 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="1:21">
-      <c r="A92" s="1"/>
+    <row r="92" ht="17.25" spans="1:21">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="C92" s="12">
+        <v>173505</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -4237,12 +4626,20 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="1:21">
-      <c r="A93" s="1"/>
+    <row r="93" ht="17.25" spans="1:21">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="C93" s="12">
+        <v>173506</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -4260,12 +4657,20 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21">
-      <c r="A94" s="1"/>
+    <row r="94" ht="17.25" spans="1:21">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="C94" s="12">
+        <v>173858</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -4283,12 +4688,20 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21">
-      <c r="A95" s="1"/>
+    <row r="95" ht="17.25" spans="1:21">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="C95" s="12">
+        <v>173859</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -4306,12 +4719,20 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21">
-      <c r="A96" s="1"/>
+    <row r="96" ht="17.25" spans="1:21">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="C96" s="12">
+        <v>173860</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -4329,12 +4750,20 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="1:21">
-      <c r="A97" s="1"/>
+    <row r="97" ht="17.25" spans="1:21">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="C97" s="12">
+        <v>173861</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -4352,12 +4781,20 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="1:21">
-      <c r="A98" s="1"/>
+    <row r="98" ht="17.25" spans="1:21">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="C98" s="12">
+        <v>173862</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -4375,12 +4812,20 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:21">
-      <c r="A99" s="1"/>
+    <row r="99" ht="17.25" spans="1:21">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="12">
+        <v>173863</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -4398,12 +4843,20 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="1:21">
-      <c r="A100" s="1"/>
+    <row r="100" ht="17.25" spans="1:21">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="C100" s="12">
+        <v>173864</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -4421,12 +4874,20 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:21">
-      <c r="A101" s="1"/>
+    <row r="101" ht="17.25" spans="1:21">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="C101" s="12">
+        <v>173865</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -4444,12 +4905,20 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:21">
-      <c r="A102" s="1"/>
+    <row r="102" ht="17.25" spans="1:21">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="C102" s="12">
+        <v>173866</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -4467,12 +4936,20 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="1:21">
-      <c r="A103" s="1"/>
+    <row r="103" ht="17.25" spans="1:21">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="C103" s="12">
+        <v>390761</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4490,12 +4967,20 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" spans="1:21">
-      <c r="A104" s="1"/>
+    <row r="104" ht="17.25" spans="1:21">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="C104" s="12">
+        <v>314053</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4513,12 +4998,20 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" spans="1:21">
-      <c r="A105" s="1"/>
+    <row r="105" ht="17.25" spans="1:21">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="C105" s="12">
+        <v>68397</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4536,12 +5029,20 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" spans="1:21">
-      <c r="A106" s="1"/>
+    <row r="106" ht="17.25" spans="1:21">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="C106" s="12">
+        <v>504881</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -4559,12 +5060,20 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" spans="1:21">
-      <c r="A107" s="1"/>
+    <row r="107" ht="17.25" spans="1:21">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="C107" s="12">
+        <v>68430</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -4582,12 +5091,20 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" spans="1:21">
-      <c r="A108" s="1"/>
+    <row r="108" ht="17.25" spans="1:21">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="C108" s="12">
+        <v>68462</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -4605,12 +5122,20 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" spans="1:21">
-      <c r="A109" s="1"/>
+    <row r="109" ht="17.25" spans="1:21">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="C109" s="12">
+        <v>68404</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4628,12 +5153,20 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" spans="1:21">
-      <c r="A110" s="1"/>
+    <row r="110" ht="17.25" spans="1:21">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="C110" s="12">
+        <v>68406</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -4651,12 +5184,20 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" spans="1:21">
-      <c r="A111" s="1"/>
+    <row r="111" ht="17.25" spans="1:21">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="C111" s="12">
+        <v>68410</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -4674,12 +5215,20 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" spans="1:21">
-      <c r="A112" s="1"/>
+    <row r="112" ht="17.25" spans="1:21">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="C112" s="12">
+        <v>68422</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4697,12 +5246,20 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" spans="1:21">
-      <c r="A113" s="1"/>
+    <row r="113" ht="17.25" spans="1:21">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="C113" s="12">
+        <v>68424</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -4720,12 +5277,20 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" spans="1:21">
-      <c r="A114" s="1"/>
+    <row r="114" ht="17.25" spans="1:21">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="C114" s="12">
+        <v>68427</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -4743,12 +5308,20 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" spans="1:21">
-      <c r="A115" s="1"/>
+    <row r="115" ht="17.25" spans="1:21">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="C115" s="12">
+        <v>68432</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -4766,12 +5339,20 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" spans="1:21">
-      <c r="A116" s="1"/>
+    <row r="116" ht="17.25" spans="1:21">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="C116" s="12">
+        <v>68434</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -4789,12 +5370,20 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" spans="1:21">
-      <c r="A117" s="1"/>
+    <row r="117" ht="17.25" spans="1:21">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="C117" s="12">
+        <v>68436</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -4812,12 +5401,20 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" spans="1:21">
-      <c r="A118" s="1"/>
+    <row r="118" ht="17.25" spans="1:21">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="C118" s="12">
+        <v>68438</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -4835,12 +5432,20 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" spans="1:21">
-      <c r="A119" s="1"/>
+    <row r="119" ht="17.25" spans="1:21">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="C119" s="12">
+        <v>68440</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -4858,12 +5463,20 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" spans="1:21">
-      <c r="A120" s="1"/>
+    <row r="120" ht="17.25" spans="1:21">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="C120" s="12">
+        <v>68442</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -4881,12 +5494,20 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" spans="1:21">
-      <c r="A121" s="1"/>
+    <row r="121" ht="17.25" spans="1:21">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="C121" s="12">
+        <v>68447</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -4904,12 +5525,20 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" spans="1:21">
-      <c r="A122" s="1"/>
+    <row r="122" ht="17.25" spans="1:21">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="C122" s="12">
+        <v>68449</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -4927,12 +5556,20 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:21">
-      <c r="A123" s="1"/>
+    <row r="123" ht="17.25" spans="1:21">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="C123" s="12">
+        <v>68452</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -4950,12 +5587,20 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:21">
-      <c r="A124" s="1"/>
+    <row r="124" ht="17.25" spans="1:21">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="C124" s="12">
+        <v>68456</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4973,12 +5618,20 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:21">
-      <c r="A125" s="1"/>
+    <row r="125" ht="17.25" spans="1:21">
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="C125" s="12">
+        <v>111667</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -4996,12 +5649,20 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:21">
-      <c r="A126" s="1"/>
+    <row r="126" ht="17.25" spans="1:21">
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="C126" s="12">
+        <v>111668</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -5019,12 +5680,20 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" spans="1:21">
-      <c r="A127" s="1"/>
+    <row r="127" ht="17.25" spans="1:21">
+      <c r="A127" s="1">
+        <v>123</v>
+      </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="C127" s="12">
+        <v>111669</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -5042,12 +5711,20 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" spans="1:21">
-      <c r="A128" s="1"/>
+    <row r="128" ht="17.25" spans="1:21">
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="C128" s="12">
+        <v>117848</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -5065,12 +5742,20 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" spans="1:21">
-      <c r="A129" s="1"/>
+    <row r="129" ht="17.25" spans="1:21">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="C129" s="12">
+        <v>134224</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -5088,12 +5773,20 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" spans="1:21">
-      <c r="A130" s="1"/>
+    <row r="130" ht="17.25" spans="1:21">
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
+      <c r="C130" s="12">
+        <v>174438</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -5111,12 +5804,20 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" spans="1:21">
-      <c r="A131" s="1"/>
+    <row r="131" ht="17.25" spans="1:21">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="C131" s="12">
+        <v>182167</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -5134,12 +5835,20 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" spans="1:21">
-      <c r="A132" s="1"/>
+    <row r="132" ht="17.25" spans="1:21">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="C132" s="12">
+        <v>186725</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -5157,12 +5866,20 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" spans="1:21">
-      <c r="A133" s="1"/>
+    <row r="133" ht="17.25" spans="1:21">
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="C133" s="12">
+        <v>186901</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -5180,12 +5897,20 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" spans="1:21">
-      <c r="A134" s="1"/>
+    <row r="134" ht="17.25" spans="1:21">
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="C134" s="12">
+        <v>191858</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -5203,12 +5928,20 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" spans="1:21">
-      <c r="A135" s="1"/>
+    <row r="135" ht="17.25" spans="1:21">
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="C135" s="12">
+        <v>192738</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -5226,12 +5959,20 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21">
-      <c r="A136" s="1"/>
+    <row r="136" ht="17.25" spans="1:21">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="C136" s="12">
+        <v>192739</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -5249,12 +5990,20 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" spans="1:21">
-      <c r="A137" s="1"/>
+    <row r="137" ht="17.25" spans="1:21">
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="C137" s="12">
+        <v>192740</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -5272,12 +6021,20 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" spans="1:21">
-      <c r="A138" s="1"/>
+    <row r="138" ht="17.25" spans="1:21">
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="C138" s="12">
+        <v>192741</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -5295,12 +6052,20 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" spans="1:21">
-      <c r="A139" s="1"/>
+    <row r="139" ht="17.25" spans="1:21">
+      <c r="A139" s="1">
+        <v>135</v>
+      </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="C139" s="12">
+        <v>202880</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -5318,12 +6083,20 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" spans="1:21">
-      <c r="A140" s="1"/>
+    <row r="140" ht="17.25" spans="1:21">
+      <c r="A140" s="1">
+        <v>136</v>
+      </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="C140" s="12">
+        <v>266537</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -5341,12 +6114,20 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21">
-      <c r="A141" s="1"/>
+    <row r="141" ht="17.25" spans="1:21">
+      <c r="A141" s="1">
+        <v>137</v>
+      </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="C141" s="12">
+        <v>286443</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -5364,12 +6145,20 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" spans="1:21">
-      <c r="A142" s="1"/>
+    <row r="142" ht="17.25" spans="1:21">
+      <c r="A142" s="1">
+        <v>138</v>
+      </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="C142" s="12">
+        <v>323565</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0</v>
+      </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -5387,12 +6176,20 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" spans="1:21">
-      <c r="A143" s="1"/>
+    <row r="143" ht="17.25" spans="1:21">
+      <c r="A143" s="1">
+        <v>139</v>
+      </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="C143" s="12">
+        <v>351369</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -5410,12 +6207,20 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" spans="1:21">
-      <c r="A144" s="1"/>
+    <row r="144" ht="17.25" spans="1:21">
+      <c r="A144" s="1">
+        <v>140</v>
+      </c>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="C144" s="12">
+        <v>363651</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -5433,12 +6238,20 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" spans="1:21">
-      <c r="A145" s="1"/>
+    <row r="145" ht="17.25" spans="1:21">
+      <c r="A145" s="1">
+        <v>141</v>
+      </c>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="C145" s="12">
+        <v>374517</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -5456,12 +6269,20 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" spans="1:21">
-      <c r="A146" s="1"/>
+    <row r="146" ht="17.25" spans="1:21">
+      <c r="A146" s="1">
+        <v>142</v>
+      </c>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="C146" s="12">
+        <v>384900</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0</v>
+      </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -5479,12 +6300,20 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="1"/>
+    <row r="147" ht="17.25" spans="1:21">
+      <c r="A147" s="1">
+        <v>143</v>
+      </c>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="C147" s="12">
+        <v>390760</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -5502,12 +6331,20 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" spans="1:21">
-      <c r="A148" s="1"/>
+    <row r="148" ht="17.25" spans="1:21">
+      <c r="A148" s="1">
+        <v>144</v>
+      </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="C148" s="12">
+        <v>457460</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -5525,10 +6362,10 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" ht="17.25" spans="1:21">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -7135,52 +7972,6 @@
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
     </row>
-    <row r="219" spans="1:21">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="U219" s="1"/>
-    </row>
-    <row r="220" spans="1:21">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Ear_耳朵.xlsx
+++ b/rp/Excel/Ear_耳朵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
   <si>
     <t>Int</t>
   </si>
@@ -79,10 +79,85 @@
     <t>星星</t>
   </si>
   <si>
+    <t>眩晕Buff</t>
+  </si>
+  <si>
+    <t>0|0|22|0|0|0|0.4|0.4|0.4</t>
+  </si>
+  <si>
+    <t>狗头</t>
+  </si>
+  <si>
+    <t>0|0|-8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>熊猫头</t>
+  </si>
+  <si>
     <t>问号</t>
   </si>
   <si>
-    <t>0|0|50|0|0|0|1|1|1</t>
+    <t>0|0|38|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>乌云</t>
+  </si>
+  <si>
+    <t>0|0|47|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|14|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>0|0|23|0|0|0|0.15|0.15|0.15</t>
+  </si>
+  <si>
+    <t>-15|0|30|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>0|0|8|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>恶心</t>
+  </si>
+  <si>
+    <t>0|0|36|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>泡泡</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>0|0|20|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>花瓣环绕</t>
+  </si>
+  <si>
+    <t>蝴蝶泡泡</t>
+  </si>
+  <si>
+    <t>五角星泡泡</t>
+  </si>
+  <si>
+    <t>打瞌睡</t>
+  </si>
+  <si>
+    <t>0|10|5|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>爱心</t>
+  </si>
+  <si>
+    <t>0|0|32|0|0|0|0.5|0.5|0.5</t>
   </si>
   <si>
     <t>梦幻泡泡蝴蝶结</t>
@@ -157,9 +232,6 @@
     <t>自动寻路图标</t>
   </si>
   <si>
-    <t>0|0|20|0|0|0|1|1|1</t>
-  </si>
-  <si>
     <t>子弹</t>
   </si>
   <si>
@@ -170,6 +242,189 @@
   </si>
   <si>
     <t>恭喜发财</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>0|0|-5|0|0|0|0.6|0.6|0.6</t>
+  </si>
+  <si>
+    <t>头套</t>
+  </si>
+  <si>
+    <t>0|0|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|0|15|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-1.3|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|4|12|-5|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|7|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|-2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|4|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|16|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1|15|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>2|-4|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|13|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|2|13|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|10|0|0|0|0.3|0.3|0.3</t>
+  </si>
+  <si>
+    <t>0|-3|8|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|8|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>0|-1|3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-5|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|14|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>-3|-5|-5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|-7|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
+    <t>0|-2|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>3|0|18|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-9|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|10|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-4|6|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-2.5|5|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-3|6|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|-2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1.5|-3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|-3|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|3|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-2.5|2.5|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-6|-6|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-1.33|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2.5|12|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|0|22|0|0|0|0.8|0.8|0.8</t>
+  </si>
+  <si>
+    <t>0|-4.5|15|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-5|16|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-4|10|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|2|12|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|2|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|17|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-11|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-3|9|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|-2|11|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -182,7 +437,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -205,6 +460,23 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -666,142 +938,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -814,6 +1086,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1348,14 +1644,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
   <cols>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1671,18 +1968,18 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" ht="17.25" spans="1:21">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
-        <v>441349</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
+      <c r="C11" s="5">
+        <v>142935</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1709,13 +2006,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>13728</v>
+        <v>462790</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1742,13 +2039,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>452232</v>
+        <v>462791</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1775,12 +2072,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>452233</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>441349</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1">
@@ -1808,13 +2105,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>452234</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>13728</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1840,16 +2137,16 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>452235</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7">
+        <v>169404</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
@@ -1874,15 +2171,15 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>471540</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
+        <v>200911</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
@@ -1907,15 +2204,15 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>471541</v>
+        <v>88831</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
@@ -1940,15 +2237,15 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>471542</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
+        <v>88818</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
@@ -1973,15 +2270,15 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>471543</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
+        <v>88825</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7">
         <v>0</v>
       </c>
       <c r="F20" s="1"/>
@@ -2006,15 +2303,15 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>502350</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
+        <v>287819</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="1"/>
@@ -2039,15 +2336,15 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
-        <v>502351</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
@@ -2072,10 +2369,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
-        <v>502352</v>
+        <v>451246</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -2105,13 +2402,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>266596</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>24</v>
+        <v>452716</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2138,13 +2435,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
-        <v>266597</v>
+        <v>340179</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -2170,14 +2467,12 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="1">
-        <v>266598</v>
+        <v>340181</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2204,13 +2499,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>266600</v>
+        <v>295800</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2237,13 +2532,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>266601</v>
+        <v>235888</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2270,13 +2565,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
-        <v>266602</v>
+        <v>295801</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2303,13 +2598,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
-        <v>266610</v>
+        <v>26158</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2336,13 +2631,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>467603</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>184435</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2369,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
-        <v>266332</v>
+        <v>452232</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2402,13 +2697,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>457013</v>
+        <v>452233</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2435,13 +2730,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>209534</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>452234</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2468,13 +2763,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>112801</v>
+        <v>452235</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2501,13 +2796,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>173867</v>
+        <v>471540</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2533,14 +2828,14 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C37" s="1">
-        <v>26146</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>38</v>
+        <v>471541</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2566,13 +2861,13 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C38" s="1">
-        <v>26151</v>
-      </c>
-      <c r="D38" s="1" t="s">
+        <v>471542</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="1">
@@ -2599,12 +2894,14 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C39" s="1">
-        <v>26155</v>
+        <v>471543</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2630,14 +2927,14 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>40</v>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C40" s="1">
-        <v>160743</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>38</v>
+        <v>502350</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2663,16 +2960,16 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C41" s="1">
-        <v>162012</v>
+        <v>502351</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="7">
         <v>0</v>
       </c>
       <c r="F41" s="1"/>
@@ -2696,16 +2993,16 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="1">
-        <v>168959</v>
+        <v>502352</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="E42" s="7">
         <v>0</v>
       </c>
       <c r="F42" s="1"/>
@@ -2729,16 +3026,16 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C43" s="1">
-        <v>200925</v>
+        <v>266596</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="1">
+        <v>49</v>
+      </c>
+      <c r="E43" s="7">
         <v>0</v>
       </c>
       <c r="F43" s="1"/>
@@ -2762,16 +3059,16 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>403000</v>
+        <v>266597</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1">
+        <v>49</v>
+      </c>
+      <c r="E44" s="7">
         <v>0</v>
       </c>
       <c r="F44" s="1"/>
@@ -2795,16 +3092,16 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>403004</v>
+        <v>266598</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="1">
+        <v>49</v>
+      </c>
+      <c r="E45" s="7">
         <v>0</v>
       </c>
       <c r="F45" s="1"/>
@@ -2828,16 +3125,16 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
+      <c r="B46" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="1">
-        <v>403012</v>
+        <v>266600</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1">
+        <v>49</v>
+      </c>
+      <c r="E46" s="7">
         <v>0</v>
       </c>
       <c r="F46" s="1"/>
@@ -2861,16 +3158,16 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>45</v>
+      <c r="B47" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>403014</v>
+        <v>266601</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1">
+        <v>49</v>
+      </c>
+      <c r="E47" s="7">
         <v>0</v>
       </c>
       <c r="F47" s="1"/>
@@ -2894,14 +3191,14 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>45</v>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>403015</v>
+        <v>266602</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -2927,14 +3224,14 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>46</v>
+      <c r="B49" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>506842</v>
+        <v>266610</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2957,11 +3254,21 @@
       <c r="U49" s="1"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>467603</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2980,11 +3287,21 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1">
+        <v>266332</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3003,11 +3320,21 @@
       <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1">
+        <v>457013</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3026,11 +3353,21 @@
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="1">
+        <v>209534</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3049,11 +3386,21 @@
       <c r="U53" s="1"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1">
+        <v>112801</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3072,11 +3419,21 @@
       <c r="U54" s="1"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>173867</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3095,11 +3452,21 @@
       <c r="U55" s="1"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1">
+        <v>26146</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3118,11 +3485,21 @@
       <c r="U56" s="1"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1">
+        <v>26151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3141,11 +3518,19 @@
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="1">
+        <v>26155</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -3164,11 +3549,21 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="1">
+        <v>160743</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3187,11 +3582,21 @@
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1">
+        <v>162012</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3210,11 +3615,21 @@
       <c r="U60" s="1"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="1">
+        <v>168959</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3233,11 +3648,21 @@
       <c r="U61" s="1"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="1">
+        <v>200925</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -3256,11 +3681,21 @@
       <c r="U62" s="1"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>403000</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3279,11 +3714,21 @@
       <c r="U63" s="1"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1">
+        <v>403004</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3302,11 +3747,21 @@
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1">
+        <v>403012</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3325,11 +3780,21 @@
       <c r="U65" s="1"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="1">
+        <v>403014</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -3348,11 +3813,21 @@
       <c r="U66" s="1"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="1">
+        <v>403015</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3371,11 +3846,21 @@
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1">
+        <v>506842</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3394,11 +3879,21 @@
       <c r="U68" s="1"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1">
+        <v>442771</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3417,11 +3912,21 @@
       <c r="U69" s="1"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>234390</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3440,11 +3945,19 @@
       <c r="U70" s="1"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="C71" s="1">
+        <v>292089</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -3462,12 +3975,20 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="1"/>
+    <row r="72" ht="17.25" spans="1:21">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="12">
+        <v>72681</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -3485,12 +4006,20 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="1"/>
+    <row r="73" ht="17.25" spans="1:21">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="C73" s="12">
+        <v>72689</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3508,12 +4037,20 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="1"/>
+    <row r="74" ht="17.25" spans="1:21">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="12">
+        <v>44268</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3531,12 +4068,20 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="1"/>
+    <row r="75" ht="17.25" spans="1:21">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="12">
+        <v>72675</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -3554,12 +4099,20 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="1"/>
+    <row r="76" ht="17.25" spans="1:21">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="C76" s="12">
+        <v>68413</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -3577,12 +4130,20 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21">
-      <c r="A77" s="1"/>
+    <row r="77" ht="17.25" spans="1:21">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="C77" s="12">
+        <v>266331</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3600,12 +4161,20 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="1"/>
+    <row r="78" ht="17.25" spans="1:21">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="C78" s="12">
+        <v>386337</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -3623,12 +4192,20 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="1"/>
+    <row r="79" ht="17.25" spans="1:21">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="C79" s="12">
+        <v>173237</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -3646,12 +4223,20 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="1"/>
+    <row r="80" ht="17.25" spans="1:21">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="C80" s="12">
+        <v>173239</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -3669,12 +4254,20 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="1"/>
+    <row r="81" ht="17.25" spans="1:21">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="12">
+        <v>173240</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -3692,12 +4285,20 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="1"/>
+    <row r="82" ht="17.25" spans="1:21">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="C82" s="12">
+        <v>173242</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -3715,12 +4316,20 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="1"/>
+    <row r="83" ht="17.25" spans="1:21">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="C83" s="12">
+        <v>173241</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -3738,12 +4347,20 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21">
-      <c r="A84" s="1"/>
+    <row r="84" ht="17.25" spans="1:21">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="C84" s="12">
+        <v>173243</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -3761,12 +4378,20 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:21">
-      <c r="A85" s="1"/>
+    <row r="85" ht="17.25" spans="1:21">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="C85" s="12">
+        <v>173244</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3784,12 +4409,20 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="1"/>
+    <row r="86" ht="17.25" spans="1:21">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="C86" s="12">
+        <v>173245</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3807,12 +4440,20 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="1"/>
+    <row r="87" ht="17.25" spans="1:21">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="C87" s="12">
+        <v>173501</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3830,12 +4471,20 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="1:21">
-      <c r="A88" s="1"/>
+    <row r="88" ht="17.25" spans="1:21">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="C88" s="12">
+        <v>173502</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3853,12 +4502,20 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:21">
-      <c r="A89" s="1"/>
+    <row r="89" ht="17.25" spans="1:21">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="C89" s="12">
+        <v>173499</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -3876,12 +4533,20 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21">
-      <c r="A90" s="1"/>
+    <row r="90" ht="17.25" spans="1:21">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="C90" s="12">
+        <v>173503</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -3899,12 +4564,20 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="1:21">
-      <c r="A91" s="1"/>
+    <row r="91" ht="17.25" spans="1:21">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="C91" s="12">
+        <v>173504</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -3922,12 +4595,20 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="1:21">
-      <c r="A92" s="1"/>
+    <row r="92" ht="17.25" spans="1:21">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="C92" s="12">
+        <v>173505</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -3945,12 +4626,20 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="1:21">
-      <c r="A93" s="1"/>
+    <row r="93" ht="17.25" spans="1:21">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="C93" s="12">
+        <v>173506</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3968,12 +4657,20 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21">
-      <c r="A94" s="1"/>
+    <row r="94" ht="17.25" spans="1:21">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="C94" s="12">
+        <v>173858</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -3991,12 +4688,20 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21">
-      <c r="A95" s="1"/>
+    <row r="95" ht="17.25" spans="1:21">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="C95" s="12">
+        <v>173859</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -4014,12 +4719,20 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21">
-      <c r="A96" s="1"/>
+    <row r="96" ht="17.25" spans="1:21">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="C96" s="12">
+        <v>173860</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -4037,12 +4750,20 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="1:21">
-      <c r="A97" s="1"/>
+    <row r="97" ht="17.25" spans="1:21">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="C97" s="12">
+        <v>173861</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -4060,12 +4781,20 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="1:21">
-      <c r="A98" s="1"/>
+    <row r="98" ht="17.25" spans="1:21">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="C98" s="12">
+        <v>173862</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -4083,12 +4812,20 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:21">
-      <c r="A99" s="1"/>
+    <row r="99" ht="17.25" spans="1:21">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="12">
+        <v>173863</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -4106,12 +4843,20 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="1:21">
-      <c r="A100" s="1"/>
+    <row r="100" ht="17.25" spans="1:21">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="C100" s="12">
+        <v>173864</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -4129,12 +4874,20 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:21">
-      <c r="A101" s="1"/>
+    <row r="101" ht="17.25" spans="1:21">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="C101" s="12">
+        <v>173865</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -4152,12 +4905,20 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:21">
-      <c r="A102" s="1"/>
+    <row r="102" ht="17.25" spans="1:21">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="C102" s="12">
+        <v>173866</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -4175,12 +4936,20 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="1:21">
-      <c r="A103" s="1"/>
+    <row r="103" ht="17.25" spans="1:21">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="C103" s="12">
+        <v>390761</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4198,12 +4967,20 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" spans="1:21">
-      <c r="A104" s="1"/>
+    <row r="104" ht="17.25" spans="1:21">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="C104" s="12">
+        <v>314053</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4221,12 +4998,20 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" spans="1:21">
-      <c r="A105" s="1"/>
+    <row r="105" ht="17.25" spans="1:21">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="C105" s="12">
+        <v>68397</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4244,12 +5029,20 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" spans="1:21">
-      <c r="A106" s="1"/>
+    <row r="106" ht="17.25" spans="1:21">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="C106" s="12">
+        <v>504881</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -4267,12 +5060,20 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" spans="1:21">
-      <c r="A107" s="1"/>
+    <row r="107" ht="17.25" spans="1:21">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="C107" s="12">
+        <v>68430</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -4290,12 +5091,20 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" spans="1:21">
-      <c r="A108" s="1"/>
+    <row r="108" ht="17.25" spans="1:21">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="C108" s="12">
+        <v>68462</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -4313,12 +5122,20 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" spans="1:21">
-      <c r="A109" s="1"/>
+    <row r="109" ht="17.25" spans="1:21">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="C109" s="12">
+        <v>68404</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4336,12 +5153,20 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" spans="1:21">
-      <c r="A110" s="1"/>
+    <row r="110" ht="17.25" spans="1:21">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="C110" s="12">
+        <v>68406</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -4359,12 +5184,20 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" spans="1:21">
-      <c r="A111" s="1"/>
+    <row r="111" ht="17.25" spans="1:21">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="C111" s="12">
+        <v>68410</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -4382,12 +5215,20 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" spans="1:21">
-      <c r="A112" s="1"/>
+    <row r="112" ht="17.25" spans="1:21">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="C112" s="12">
+        <v>68422</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4405,12 +5246,20 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" spans="1:21">
-      <c r="A113" s="1"/>
+    <row r="113" ht="17.25" spans="1:21">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="C113" s="12">
+        <v>68424</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -4428,12 +5277,20 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" spans="1:21">
-      <c r="A114" s="1"/>
+    <row r="114" ht="17.25" spans="1:21">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="C114" s="12">
+        <v>68427</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -4451,12 +5308,20 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" spans="1:21">
-      <c r="A115" s="1"/>
+    <row r="115" ht="17.25" spans="1:21">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="C115" s="12">
+        <v>68432</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -4474,12 +5339,20 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" spans="1:21">
-      <c r="A116" s="1"/>
+    <row r="116" ht="17.25" spans="1:21">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="C116" s="12">
+        <v>68434</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -4497,12 +5370,20 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" spans="1:21">
-      <c r="A117" s="1"/>
+    <row r="117" ht="17.25" spans="1:21">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="C117" s="12">
+        <v>68436</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -4520,12 +5401,20 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" spans="1:21">
-      <c r="A118" s="1"/>
+    <row r="118" ht="17.25" spans="1:21">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="C118" s="12">
+        <v>68438</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -4543,12 +5432,20 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" spans="1:21">
-      <c r="A119" s="1"/>
+    <row r="119" ht="17.25" spans="1:21">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="C119" s="12">
+        <v>68440</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -4566,12 +5463,20 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" spans="1:21">
-      <c r="A120" s="1"/>
+    <row r="120" ht="17.25" spans="1:21">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="C120" s="12">
+        <v>68442</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -4589,12 +5494,20 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" spans="1:21">
-      <c r="A121" s="1"/>
+    <row r="121" ht="17.25" spans="1:21">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="C121" s="12">
+        <v>68447</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -4612,12 +5525,20 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" spans="1:21">
-      <c r="A122" s="1"/>
+    <row r="122" ht="17.25" spans="1:21">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="C122" s="12">
+        <v>68449</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -4635,12 +5556,20 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:21">
-      <c r="A123" s="1"/>
+    <row r="123" ht="17.25" spans="1:21">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="C123" s="12">
+        <v>68452</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -4658,12 +5587,20 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:21">
-      <c r="A124" s="1"/>
+    <row r="124" ht="17.25" spans="1:21">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="C124" s="12">
+        <v>68456</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4681,12 +5618,20 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:21">
-      <c r="A125" s="1"/>
+    <row r="125" ht="17.25" spans="1:21">
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="C125" s="12">
+        <v>111667</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -4704,12 +5649,20 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:21">
-      <c r="A126" s="1"/>
+    <row r="126" ht="17.25" spans="1:21">
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="C126" s="12">
+        <v>111668</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -4727,12 +5680,20 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" spans="1:21">
-      <c r="A127" s="1"/>
+    <row r="127" ht="17.25" spans="1:21">
+      <c r="A127" s="1">
+        <v>123</v>
+      </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="C127" s="12">
+        <v>111669</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -4750,12 +5711,20 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" spans="1:21">
-      <c r="A128" s="1"/>
+    <row r="128" ht="17.25" spans="1:21">
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="C128" s="12">
+        <v>117848</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -4773,12 +5742,20 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" spans="1:21">
-      <c r="A129" s="1"/>
+    <row r="129" ht="17.25" spans="1:21">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="C129" s="12">
+        <v>134224</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -4796,12 +5773,20 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" spans="1:21">
-      <c r="A130" s="1"/>
+    <row r="130" ht="17.25" spans="1:21">
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
+      <c r="C130" s="12">
+        <v>174438</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -4819,12 +5804,20 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" spans="1:21">
-      <c r="A131" s="1"/>
+    <row r="131" ht="17.25" spans="1:21">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="C131" s="12">
+        <v>182167</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -4842,12 +5835,20 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" spans="1:21">
-      <c r="A132" s="1"/>
+    <row r="132" ht="17.25" spans="1:21">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="C132" s="12">
+        <v>186725</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -4865,12 +5866,20 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" spans="1:21">
-      <c r="A133" s="1"/>
+    <row r="133" ht="17.25" spans="1:21">
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="C133" s="12">
+        <v>186901</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -4888,12 +5897,20 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" spans="1:21">
-      <c r="A134" s="1"/>
+    <row r="134" ht="17.25" spans="1:21">
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="C134" s="12">
+        <v>191858</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -4911,12 +5928,20 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" spans="1:21">
-      <c r="A135" s="1"/>
+    <row r="135" ht="17.25" spans="1:21">
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="C135" s="12">
+        <v>192738</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -4934,12 +5959,20 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21">
-      <c r="A136" s="1"/>
+    <row r="136" ht="17.25" spans="1:21">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="C136" s="12">
+        <v>192739</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -4957,12 +5990,20 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" spans="1:21">
-      <c r="A137" s="1"/>
+    <row r="137" ht="17.25" spans="1:21">
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="C137" s="12">
+        <v>192740</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -4980,12 +6021,20 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" spans="1:21">
-      <c r="A138" s="1"/>
+    <row r="138" ht="17.25" spans="1:21">
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="C138" s="12">
+        <v>192741</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -5003,12 +6052,20 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" spans="1:21">
-      <c r="A139" s="1"/>
+    <row r="139" ht="17.25" spans="1:21">
+      <c r="A139" s="1">
+        <v>135</v>
+      </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="C139" s="12">
+        <v>202880</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -5026,12 +6083,20 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" spans="1:21">
-      <c r="A140" s="1"/>
+    <row r="140" ht="17.25" spans="1:21">
+      <c r="A140" s="1">
+        <v>136</v>
+      </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="C140" s="12">
+        <v>266537</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -5049,12 +6114,20 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21">
-      <c r="A141" s="1"/>
+    <row r="141" ht="17.25" spans="1:21">
+      <c r="A141" s="1">
+        <v>137</v>
+      </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="C141" s="12">
+        <v>286443</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -5072,12 +6145,20 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" spans="1:21">
-      <c r="A142" s="1"/>
+    <row r="142" ht="17.25" spans="1:21">
+      <c r="A142" s="1">
+        <v>138</v>
+      </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="C142" s="12">
+        <v>323565</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0</v>
+      </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -5095,12 +6176,20 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" spans="1:21">
-      <c r="A143" s="1"/>
+    <row r="143" ht="17.25" spans="1:21">
+      <c r="A143" s="1">
+        <v>139</v>
+      </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="C143" s="12">
+        <v>351369</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -5118,12 +6207,20 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" spans="1:21">
-      <c r="A144" s="1"/>
+    <row r="144" ht="17.25" spans="1:21">
+      <c r="A144" s="1">
+        <v>140</v>
+      </c>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="C144" s="12">
+        <v>363651</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -5141,12 +6238,20 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" spans="1:21">
-      <c r="A145" s="1"/>
+    <row r="145" ht="17.25" spans="1:21">
+      <c r="A145" s="1">
+        <v>141</v>
+      </c>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="C145" s="12">
+        <v>374517</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -5164,12 +6269,20 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" spans="1:21">
-      <c r="A146" s="1"/>
+    <row r="146" ht="17.25" spans="1:21">
+      <c r="A146" s="1">
+        <v>142</v>
+      </c>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="C146" s="12">
+        <v>384900</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0</v>
+      </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -5187,12 +6300,20 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="1"/>
+    <row r="147" ht="17.25" spans="1:21">
+      <c r="A147" s="1">
+        <v>143</v>
+      </c>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="C147" s="12">
+        <v>390760</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -5210,12 +6331,20 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" spans="1:21">
-      <c r="A148" s="1"/>
+    <row r="148" ht="17.25" spans="1:21">
+      <c r="A148" s="1">
+        <v>144</v>
+      </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="C148" s="12">
+        <v>457460</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -5233,10 +6362,10 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" ht="17.25" spans="1:21">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -6452,6 +7581,397 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
     </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
